--- a/optimal_purchase_forecast.xlsx
+++ b/optimal_purchase_forecast.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>Цена на арматуру</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,59 +455,51 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>объем</t>
+          <t>Объем</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="2" t="n">
         <v>44809</v>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>45343.30078125</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="2" t="n">
         <v>44816</v>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>44747.77734375</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="2" t="n">
         <v>44823</v>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>44297.21875</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="2" t="n">
         <v>44830</v>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>44345.23046875</v>
       </c>
@@ -516,12 +508,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="2" t="n">
         <v>44837</v>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>45100.91796875</v>
       </c>
@@ -530,236 +520,202 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="2" t="n">
         <v>44844</v>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>45776.44140625</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="2" t="n">
         <v>44851</v>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>46603.1953125</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="2" t="n">
         <v>44858</v>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>47357.07421875</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="2" t="n">
         <v>44865</v>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>47838.88671875</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="2" t="n">
         <v>44872</v>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>48374.515625</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="2" t="n">
         <v>44879</v>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>48518.19140625</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="A13" s="2" t="n">
         <v>44886</v>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>49527.19140625</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="2" t="n">
         <v>44893</v>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>50512.6796875</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="2" t="n">
         <v>44900</v>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>52055.953125</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="2" t="n">
         <v>44907</v>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>54386.72265625</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="2" t="n">
         <v>44914</v>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>56631.5859375</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="2" t="n">
         <v>44921</v>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>58042.9765625</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="2" t="n">
         <v>44928</v>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>58820.6171875</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="2" t="n">
         <v>44935</v>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>59904.09765625</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="2" t="n">
         <v>44942</v>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>60084.19140625</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="2" t="n">
         <v>44949</v>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>60044.42578125</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="2" t="n">
         <v>44956</v>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>60063.29296875</v>
       </c>
@@ -768,152 +724,130 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
+      <c r="A24" s="2" t="n">
         <v>44963</v>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>60345.171875</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="2" t="n">
         <v>44970</v>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
         <v>60437.171875</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="2" t="n">
         <v>44977</v>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
         <v>60616.28125</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="2" t="n">
         <v>44984</v>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>62072.9609375</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="2" t="n">
         <v>44991</v>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>62779.2578125</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="2" t="n">
         <v>44998</v>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
         <v>63906.83203125</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="2" t="n">
         <v>45005</v>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>65020.55859375</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="2" t="n">
         <v>45012</v>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>67475.3359375</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="2" t="n">
         <v>45019</v>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>70253.8359375</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="2" t="n">
         <v>45026</v>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>72196.625</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="2" t="n">
         <v>45033</v>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>72236.78125</v>
       </c>
@@ -922,40 +856,34 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
+      <c r="A35" s="2" t="n">
         <v>45040</v>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>72379.8671875</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="2" t="n">
         <v>45047</v>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>72217.078125</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="2" t="n">
         <v>45054</v>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>72368.34375</v>
       </c>
@@ -964,12 +892,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="2" t="n">
         <v>45061</v>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
         <v>72363.3671875</v>
       </c>
@@ -978,26 +904,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="2" t="n">
         <v>45068</v>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>72453.7109375</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="2" t="n">
         <v>45075</v>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>72389.421875</v>
       </c>
@@ -1006,82 +928,70 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="2" t="n">
         <v>45082</v>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>72659.7890625</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="2" t="n">
         <v>45089</v>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>72893.9375</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="2" t="n">
         <v>45096</v>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
         <v>73077.6328125</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="2" t="n">
         <v>45103</v>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>73942.3828125</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="2" t="n">
         <v>45110</v>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>73977.9921875</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
+      <c r="A46" s="2" t="n">
         <v>45117</v>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>73686.109375</v>
       </c>
@@ -1090,101 +1000,87 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="2" t="n">
         <v>45124</v>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>73597.625</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="2" t="n">
         <v>45131</v>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
         <v>72213.046875</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="2" t="n">
         <v>45138</v>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>70020.1796875</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="2" t="n">
         <v>45145</v>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
         <v>68580.90625</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="2" t="n">
         <v>45152</v>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
         <v>67032.1640625</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="2" t="n">
         <v>45159</v>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
         <v>66050.25</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="2" t="n">
         <v>45166</v>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
         <v>66971.75</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
